--- a/Data/Input/ModeloRelatorioFinal.xlsx
+++ b/Data/Input/ModeloRelatorioFinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\UiPath\ProjetoFinalPerformer\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\ProjetoFinalSmarthisPerformer\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C30E31-AF59-496B-8356-BCB2DF59E3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809554E9-1F0A-49C8-8EB5-4171D638E2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF67986F-9DA7-44C3-BFED-5D02C1B180F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BF67986F-9DA7-44C3-BFED-5D02C1B180F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,12 @@
     </font>
     <font>
       <u/>
+      <sz val="9"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF404040"/>
       <name val="Segoe UI"/>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -140,6 +146,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -459,12 +469,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A2:F4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40" style="1"/>
+    <col min="4" max="4" width="40" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -477,7 +488,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -491,7 +502,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
     </row>
@@ -499,7 +510,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
     </row>
@@ -507,7 +518,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
     </row>
@@ -516,20 +527,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010021F04BA46BB0724FBA4B5525E38B9BE7" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0e70bbde2004e25324b8e2559eb33c97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="702e007b-dd7c-4dcd-b502-83dfa1051437" xmlns:ns3="f6737f56-0a08-42d8-bf8a-bb882c568aea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b36a00a27da2033dcb7d317e9d8a90a2" ns2:_="" ns3:_="">
     <xsd:import namespace="702e007b-dd7c-4dcd-b502-83dfa1051437"/>
@@ -772,6 +774,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -784,14 +795,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{417B2896-2148-4152-86C0-0FE96C8F223D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626B765-F536-4A9E-A76E-DE852DC6A094}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -810,6 +813,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{417B2896-2148-4152-86C0-0FE96C8F223D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E2308D9-2ED9-4924-9C08-62557C75C9CB}">
   <ds:schemaRefs>
